--- a/resources/bigblue.xlsx
+++ b/resources/bigblue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vico/Sites/diggers/api/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61BC891-B9FA-ED41-90B5-1B31588DF34A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1142ED36-F5EA-1B46-9682-39E7F6068E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33240" yWindow="-460" windowWidth="28040" windowHeight="17420" activeTab="1" xr2:uid="{BF8B9BFC-6A78-5943-AD1E-66D76DF2984C}"/>
+    <workbookView xWindow="40180" yWindow="3800" windowWidth="19700" windowHeight="18020" activeTab="5" xr2:uid="{BF8B9BFC-6A78-5943-AD1E-66D76DF2984C}"/>
   </bookViews>
   <sheets>
     <sheet name="France" sheetId="6" r:id="rId1"/>
@@ -946,7 +946,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00\ \€"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -992,6 +992,11 @@
     <font>
       <sz val="9.5"/>
       <name val="MS UI Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1091,7 +1096,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1132,6 +1137,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1147,10 +1158,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2472,10 +2480,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="15" t="s">
         <v>67</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -2484,7 +2492,7 @@
       <c r="E1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="14" t="s">
         <v>70</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -2961,8 +2969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13322179-B74B-7445-BB07-7E7C27335E97}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2977,10 +2985,10 @@
       <c r="B1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="15" t="s">
         <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -3140,7 +3148,7 @@
   <dimension ref="A1:AA21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="H3" sqref="G3:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4913,7 +4921,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5044,12 +5052,12 @@
       <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:4" ht="72" customHeight="1">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5061,10 +5069,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{298C684C-0B8B-CD4C-9BEB-9A81AC0F1125}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="D22" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5072,471 +5080,427 @@
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28">
+    <row r="1" spans="1:6" ht="28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="18"/>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="5">
         <v>6.68</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="6">
         <v>6.68</v>
       </c>
-      <c r="D2" s="16"/>
+      <c r="D2" s="5">
+        <v>7.46</v>
+      </c>
       <c r="E2" s="5">
-        <v>7.46</v>
+        <v>7.79</v>
       </c>
       <c r="F2" s="5">
-        <v>7.79</v>
-      </c>
-      <c r="G2" s="5">
         <v>8.06</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="5">
         <v>6.93</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="6">
         <v>6.93</v>
       </c>
-      <c r="D3" s="16"/>
+      <c r="D3" s="5">
+        <v>7.72</v>
+      </c>
       <c r="E3" s="5">
-        <v>7.72</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="F3" s="5">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="G3" s="5">
         <v>8.32</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="5">
         <v>7.32</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="6">
         <v>7.32</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="D4" s="5">
+        <v>8.11</v>
+      </c>
       <c r="E4" s="5">
-        <v>8.11</v>
+        <v>8.52</v>
       </c>
       <c r="F4" s="5">
-        <v>8.52</v>
-      </c>
-      <c r="G4" s="5">
         <v>8.86</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="5">
         <v>7.68</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="6">
         <v>7.68</v>
       </c>
-      <c r="D5" s="16"/>
+      <c r="D5" s="5">
+        <v>8.4700000000000006</v>
+      </c>
       <c r="E5" s="5">
-        <v>8.4700000000000006</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="F5" s="5">
-        <v>8.8800000000000008</v>
-      </c>
-      <c r="G5" s="5">
         <v>9.23</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="5">
         <v>8.4</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="6">
         <v>8.4</v>
       </c>
-      <c r="D6" s="16"/>
+      <c r="D6" s="5">
+        <v>9.19</v>
+      </c>
       <c r="E6" s="5">
-        <v>9.19</v>
+        <v>9.75</v>
       </c>
       <c r="F6" s="5">
-        <v>9.75</v>
-      </c>
-      <c r="G6" s="5">
         <v>9.9499999999999993</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="5">
         <v>9.61</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="6">
         <v>9.61</v>
       </c>
-      <c r="D7" s="16"/>
+      <c r="D7" s="5">
+        <v>10.42</v>
+      </c>
       <c r="E7" s="5">
-        <v>10.42</v>
+        <v>13.56</v>
       </c>
       <c r="F7" s="5">
-        <v>13.56</v>
-      </c>
-      <c r="G7" s="5">
         <v>11.17</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="5">
         <v>11.14</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="6">
         <v>11.14</v>
       </c>
-      <c r="D8" s="16"/>
+      <c r="D8" s="5">
+        <v>11.93</v>
+      </c>
       <c r="E8" s="5">
-        <v>11.93</v>
+        <v>15.08</v>
       </c>
       <c r="F8" s="5">
-        <v>15.08</v>
-      </c>
-      <c r="G8" s="5">
         <v>12.68</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="5">
         <v>12.05</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="6">
         <v>12.05</v>
       </c>
-      <c r="D9" s="16"/>
+      <c r="D9" s="5">
+        <v>12.85</v>
+      </c>
       <c r="E9" s="5">
-        <v>12.85</v>
+        <v>16</v>
       </c>
       <c r="F9" s="5">
-        <v>16</v>
-      </c>
-      <c r="G9" s="5">
         <v>13.6</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="5">
         <v>13.91</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="6">
         <v>13.91</v>
       </c>
-      <c r="D10" s="16"/>
+      <c r="D10" s="5">
+        <v>14.71</v>
+      </c>
       <c r="E10" s="5">
-        <v>14.71</v>
+        <v>18.75</v>
       </c>
       <c r="F10" s="5">
-        <v>18.75</v>
-      </c>
-      <c r="G10" s="5">
         <v>15.46</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="5">
         <v>14.47</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="6">
         <v>14.47</v>
       </c>
-      <c r="D11" s="16"/>
+      <c r="D11" s="5">
+        <v>15.27</v>
+      </c>
       <c r="E11" s="5">
-        <v>15.27</v>
+        <v>19.3</v>
       </c>
       <c r="F11" s="5">
-        <v>19.3</v>
-      </c>
-      <c r="G11" s="5">
         <v>16.02</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:6">
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="5">
         <v>16.489999999999998</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="6">
         <v>16.489999999999998</v>
       </c>
-      <c r="D12" s="16"/>
+      <c r="D12" s="5">
+        <v>17.28</v>
+      </c>
       <c r="E12" s="5">
-        <v>17.28</v>
+        <v>23.03</v>
       </c>
       <c r="F12" s="5">
-        <v>23.03</v>
-      </c>
-      <c r="G12" s="5">
         <v>18.03</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:6">
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="5">
         <v>17.47</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="6">
         <v>17.47</v>
       </c>
-      <c r="D13" s="16"/>
+      <c r="D13" s="5">
+        <v>18.260000000000002</v>
+      </c>
       <c r="E13" s="5">
-        <v>18.260000000000002</v>
+        <v>24.01</v>
       </c>
       <c r="F13" s="5">
-        <v>24.01</v>
-      </c>
-      <c r="G13" s="5">
         <v>19.010000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:6">
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="5">
         <v>18.7</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="6">
         <v>18.7</v>
       </c>
-      <c r="D14" s="16"/>
+      <c r="D14" s="5">
+        <v>19.5</v>
+      </c>
       <c r="E14" s="5">
-        <v>19.5</v>
+        <v>25.25</v>
       </c>
       <c r="F14" s="5">
-        <v>25.25</v>
-      </c>
-      <c r="G14" s="5">
         <v>20.25</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:6">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="5">
         <v>21.12</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="6">
         <v>21.12</v>
       </c>
-      <c r="D15" s="16"/>
+      <c r="D15" s="5">
+        <v>21.93</v>
+      </c>
       <c r="E15" s="5">
-        <v>21.93</v>
+        <v>28.09</v>
       </c>
       <c r="F15" s="5">
-        <v>28.09</v>
-      </c>
-      <c r="G15" s="5">
         <v>22.68</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:6">
       <c r="A16" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="5">
         <v>21.87</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="6">
         <v>21.87</v>
       </c>
-      <c r="D16" s="16"/>
+      <c r="D16" s="5">
+        <v>22.68</v>
+      </c>
       <c r="E16" s="5">
-        <v>22.68</v>
+        <v>28.83</v>
       </c>
       <c r="F16" s="5">
-        <v>28.83</v>
-      </c>
-      <c r="G16" s="5">
         <v>23.43</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:6">
       <c r="A17" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="5">
         <v>21.9</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="6">
         <v>21.9</v>
       </c>
-      <c r="D17" s="16"/>
+      <c r="D17" s="5">
+        <v>22.71</v>
+      </c>
       <c r="E17" s="5">
-        <v>22.71</v>
+        <v>28.87</v>
       </c>
       <c r="F17" s="5">
-        <v>28.87</v>
-      </c>
-      <c r="G17" s="5">
         <v>23.46</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:6">
       <c r="A18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="5">
         <v>21.94</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="6">
         <v>21.94</v>
       </c>
-      <c r="D18" s="16"/>
+      <c r="D18" s="5">
+        <v>22.75</v>
+      </c>
       <c r="E18" s="5">
-        <v>22.75</v>
+        <v>28.9</v>
       </c>
       <c r="F18" s="5">
-        <v>28.9</v>
-      </c>
-      <c r="G18" s="5">
         <v>23.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:6">
       <c r="A19" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="5">
         <v>21.97</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="6">
         <v>21.97</v>
       </c>
-      <c r="D19" s="16"/>
+      <c r="D19" s="5">
+        <v>22.78</v>
+      </c>
       <c r="E19" s="5">
-        <v>22.78</v>
+        <v>28.94</v>
       </c>
       <c r="F19" s="5">
-        <v>28.94</v>
-      </c>
-      <c r="G19" s="5">
         <v>23.53</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:6">
       <c r="A20" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="5">
         <v>25.42</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="6">
         <v>25.42</v>
       </c>
-      <c r="D20" s="16"/>
+      <c r="D20" s="5">
+        <v>26.23</v>
+      </c>
       <c r="E20" s="5">
-        <v>26.23</v>
+        <v>33.24</v>
       </c>
       <c r="F20" s="5">
-        <v>33.24</v>
-      </c>
-      <c r="G20" s="5">
         <v>26.98</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:6">
       <c r="A21" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="5">
         <v>31.14</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="6">
         <v>31.14</v>
       </c>
-      <c r="D21" s="16"/>
+      <c r="D21" s="5">
+        <v>31.97</v>
+      </c>
       <c r="E21" s="5">
-        <v>31.97</v>
+        <v>39.19</v>
       </c>
       <c r="F21" s="5">
-        <v>39.19</v>
-      </c>
-      <c r="G21" s="5">
         <v>32.72</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5545,8 +5509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFEAF78B-BF24-DD4A-AA5C-0A768D6DA8D5}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5566,11 +5530,11 @@
       <c r="C1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="20"/>
+      <c r="F1" s="21" t="s">
         <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -5587,10 +5551,10 @@
       <c r="C2" s="5">
         <v>31.02</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="17">
         <v>35.090000000000003</v>
       </c>
-      <c r="E2" s="16"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="5">
         <v>15.76</v>
       </c>
@@ -5608,10 +5572,10 @@
       <c r="C3" s="5">
         <v>31.28</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="17">
         <v>35.340000000000003</v>
       </c>
-      <c r="E3" s="16"/>
+      <c r="E3" s="18"/>
       <c r="F3" s="5">
         <v>16.010000000000002</v>
       </c>
@@ -5629,10 +5593,10 @@
       <c r="C4" s="5">
         <v>34.51</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="17">
         <v>41.26</v>
       </c>
-      <c r="E4" s="16"/>
+      <c r="E4" s="18"/>
       <c r="F4" s="5">
         <v>22.78</v>
       </c>
@@ -5650,10 +5614,10 @@
       <c r="C5" s="5">
         <v>34.869999999999997</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="17">
         <v>41.63</v>
       </c>
-      <c r="E5" s="16"/>
+      <c r="E5" s="18"/>
       <c r="F5" s="5">
         <v>23.14</v>
       </c>
@@ -5671,10 +5635,10 @@
       <c r="C6" s="5">
         <v>46.82</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="17">
         <v>56.15</v>
       </c>
-      <c r="E6" s="16"/>
+      <c r="E6" s="18"/>
       <c r="F6" s="5">
         <v>30.57</v>
       </c>
@@ -5692,10 +5656,10 @@
       <c r="C7" s="5">
         <v>59.08</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="17">
         <v>71.27</v>
       </c>
-      <c r="E7" s="16"/>
+      <c r="E7" s="18"/>
       <c r="F7" s="5">
         <v>38.340000000000003</v>
       </c>
@@ -5713,10 +5677,10 @@
       <c r="C8" s="5">
         <v>67.760000000000005</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="17">
         <v>86.12</v>
       </c>
-      <c r="E8" s="16"/>
+      <c r="E8" s="18"/>
       <c r="F8" s="5">
         <v>46.12</v>
       </c>
@@ -5734,10 +5698,10 @@
       <c r="C9" s="5">
         <v>72.81</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="17">
         <v>98.96</v>
       </c>
-      <c r="E9" s="16"/>
+      <c r="E9" s="18"/>
       <c r="F9" s="5">
         <v>51.87</v>
       </c>
@@ -5755,10 +5719,10 @@
       <c r="C10" s="5">
         <v>92.24</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="17">
         <v>113.8</v>
       </c>
-      <c r="E10" s="16"/>
+      <c r="E10" s="18"/>
       <c r="F10" s="5">
         <v>62.04</v>
       </c>
@@ -5776,10 +5740,10 @@
       <c r="C11" s="5">
         <v>105.96</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="17">
         <v>128.11000000000001</v>
       </c>
-      <c r="E11" s="16"/>
+      <c r="E11" s="18"/>
       <c r="F11" s="5">
         <v>69.44</v>
       </c>
@@ -5797,10 +5761,10 @@
       <c r="C12" s="5">
         <v>116.97</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="17">
         <v>142.30000000000001</v>
       </c>
-      <c r="E12" s="16"/>
+      <c r="E12" s="18"/>
       <c r="F12" s="5">
         <v>75.37</v>
       </c>
@@ -5818,10 +5782,10 @@
       <c r="C13" s="5">
         <v>122.45</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="17">
         <v>157.22999999999999</v>
       </c>
-      <c r="E13" s="16"/>
+      <c r="E13" s="18"/>
       <c r="F13" s="5">
         <v>82.88</v>
       </c>
@@ -5839,10 +5803,10 @@
       <c r="C14" s="5">
         <v>129.27000000000001</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="17">
         <v>172.09</v>
       </c>
-      <c r="E14" s="16"/>
+      <c r="E14" s="18"/>
       <c r="F14" s="5">
         <v>91.95</v>
       </c>
@@ -5860,10 +5824,10 @@
       <c r="C15" s="5">
         <v>183.75</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="17">
         <v>233.86</v>
       </c>
-      <c r="E15" s="16"/>
+      <c r="E15" s="18"/>
       <c r="F15" s="5">
         <v>124.05</v>
       </c>
@@ -5881,10 +5845,10 @@
       <c r="C16" s="5">
         <v>184.49</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="17">
         <v>234.61</v>
       </c>
-      <c r="E16" s="16"/>
+      <c r="E16" s="18"/>
       <c r="F16" s="5">
         <v>124.79</v>
       </c>
@@ -5902,10 +5866,10 @@
       <c r="C17" s="5">
         <v>184.53</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="17">
         <v>234.64</v>
       </c>
-      <c r="E17" s="16"/>
+      <c r="E17" s="18"/>
       <c r="F17" s="5">
         <v>124.83</v>
       </c>
@@ -5923,10 +5887,10 @@
       <c r="C18" s="5">
         <v>184.56</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="17">
         <v>234.68</v>
       </c>
-      <c r="E18" s="16"/>
+      <c r="E18" s="18"/>
       <c r="F18" s="5">
         <v>124.86</v>
       </c>
@@ -5944,10 +5908,10 @@
       <c r="C19" s="5">
         <v>184.6</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="17">
         <v>234.71</v>
       </c>
-      <c r="E19" s="16"/>
+      <c r="E19" s="18"/>
       <c r="F19" s="5">
         <v>124.9</v>
       </c>
@@ -5965,10 +5929,10 @@
       <c r="C20" s="5">
         <v>201.97</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="17">
         <v>298.82</v>
       </c>
-      <c r="E20" s="16"/>
+      <c r="E20" s="18"/>
       <c r="F20" s="5">
         <v>158.07</v>
       </c>
@@ -5986,10 +5950,10 @@
       <c r="C21" s="5">
         <v>293.52</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="17">
         <v>423.7</v>
       </c>
-      <c r="E21" s="16"/>
+      <c r="E21" s="18"/>
       <c r="F21" s="5">
         <v>233.23</v>
       </c>
@@ -6004,6 +5968,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D2:E2"/>
@@ -6016,16 +5989,8 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>